--- a/extern/Unit Information.xlsx
+++ b/extern/Unit Information.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\dbei-hackathon-na-2019\extern\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976CDCAB-C9A8-469B-970F-8902E6D3237C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4EBB7F-FE96-424E-B3E9-D4D6AC43138E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Metadata" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -437,7 +437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -763,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/extern/Unit Information.xlsx
+++ b/extern/Unit Information.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\dbei-hackathon-na-2019\extern\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4EBB7F-FE96-424E-B3E9-D4D6AC43138E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7788D268-4011-49C4-919C-0039DA6E0250}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Metadata" sheetId="1" r:id="rId1"/>
@@ -437,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,20 +474,20 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>324</v>
       </c>
       <c r="E2">
-        <v>3.75</v>
+        <v>45</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G13" si="0">D2*C2</f>
-        <v>405</v>
+        <v>58320</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -498,20 +498,20 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>324</v>
       </c>
       <c r="E3">
-        <v>3.75</v>
+        <v>45</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>486</v>
+        <v>69984</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -522,20 +522,20 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>252</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>324</v>
       </c>
       <c r="E4">
-        <v>4.75</v>
+        <v>57</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>567</v>
+        <v>81648</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -546,20 +546,20 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>288</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>324</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>648</v>
+        <v>93312</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -570,20 +570,20 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>324</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>324</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>729</v>
+        <v>104976</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -594,20 +594,20 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>360</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>324</v>
       </c>
       <c r="E7">
-        <v>7.5</v>
+        <v>90</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>810</v>
+        <v>116640</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -618,20 +618,20 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>33</v>
+        <v>396</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>324</v>
       </c>
       <c r="E8">
-        <v>16.5</v>
+        <v>198</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>891</v>
+        <v>128304</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -642,20 +642,20 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>36</v>
+        <v>432</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>324</v>
       </c>
       <c r="E9">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>972</v>
+        <v>139968</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -666,20 +666,20 @@
         <v>17</v>
       </c>
       <c r="C10">
-        <v>39</v>
+        <v>468</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>324</v>
       </c>
       <c r="E10">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>1053</v>
+        <v>151632</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -690,20 +690,20 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>42</v>
+        <v>504</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>324</v>
       </c>
       <c r="E11">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>1134</v>
+        <v>163296</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -714,20 +714,20 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>45</v>
+        <v>540</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>324</v>
       </c>
       <c r="E12">
-        <v>27.5</v>
+        <v>330</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>1215</v>
+        <v>174960</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -738,20 +738,20 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>48</v>
+        <v>576</v>
       </c>
       <c r="D13">
-        <v>27</v>
+        <v>324</v>
       </c>
       <c r="E13">
-        <v>27.5</v>
+        <v>330</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>1296</v>
+        <v>186624</v>
       </c>
     </row>
   </sheetData>
@@ -763,7 +763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
